--- a/BioSTEAM 2.x.x/biorefineries/HP/data/Solvents_barrage_3-HP_2021.5.1-23.3.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/HP/data/Solvents_barrage_3-HP_2021.5.1-23.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\BioSTEAM 2.x.x\biorefineries\HP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\BioSTEAM 2.x.x\biorefineries\HP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55519D2-F470-4659-9E48-06CACD0AA8FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD167AF8-AB20-4C73-A9D5-FA0A67F7DB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +495,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,19 +527,19 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>4.6458772159069568</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.40388588508616913</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1.641213869993878E-3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.3711933470528217</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.14264642366315411</v>
       </c>
       <c r="G2" s="1">
@@ -549,19 +550,19 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3.1765797222912169</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.46323200310809998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>2.4750298484765471E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.42749336299045421</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.27498804273248417</v>
       </c>
       <c r="G3" s="1">
@@ -572,19 +573,19 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1.914380658086217</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.36221643056433628</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1.4530717546797861E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.48648421688481558</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.68087850895381097</v>
       </c>
       <c r="G4" s="1">
@@ -595,19 +596,19 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1.2826475504406221</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.30527689627562032</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>7.8666011235808617E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.53263276005305205</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>1.396448839318406</v>
       </c>
       <c r="G5" s="1">
@@ -618,19 +619,19 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1.068772096767775</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.060576662864168</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.93011358507253628</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.93800448675567549</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.93011358507253628</v>
       </c>
       <c r="G6" s="1">
@@ -641,19 +642,19 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>1.0590174007853199</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.26914466686059613</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>3.4857782907443272E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.54744005422085218</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>2.0244767721158259</v>
       </c>
       <c r="G7" s="1">
@@ -664,19 +665,19 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>1.058494423712403</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.26906453422087118</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>3.4990565844206282E-3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>0.55185175379353058</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>2.0239432922758178</v>
       </c>
       <c r="G8" s="1">
@@ -687,19 +688,19 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1.0510407451202941</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1.04471736186736</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.94545709748997153</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>0.95087811789121923</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>0.95391342599621864</v>
       </c>
       <c r="G9" s="1">
@@ -710,19 +711,19 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0.90738223099404358</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.24512730892185949</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>1.553177288748019E-3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>0.55901711398001896</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>2.728959095034587</v>
       </c>
       <c r="G10" s="1">
@@ -733,19 +734,19 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>0.79749726712212632</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>0.22698265140138779</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>6.9986054432216087E-4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>0.56769843635679695</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>3.553870943101936</v>
       </c>
       <c r="G11" s="1">
@@ -756,19 +757,19 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>0.67192000274886887</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>0.15061293091747091</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.15409686210394591</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>0.70613547247215613</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>5.1823364609820253</v>
       </c>
       <c r="G12" s="1">
@@ -779,19 +780,19 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>0.63007201299593985</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>0.20580477310340381</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>1.4557581442704821E-4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>0.58869425637938855</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>5.5099844181936639</v>
       </c>
       <c r="G13" s="1">
@@ -802,19 +803,19 @@
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0.50323898649097809</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>0.26037945390873668</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>3.7549643504007309E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>0.69770866116583563</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>7.8109639518825373</v>
       </c>
       <c r="G14" s="1">
@@ -825,19 +826,19 @@
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>0.40729448817449521</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>0.20291547964618109</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>1.4104671701387919E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>0.74305814136159987</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>10.814360946418541</v>
       </c>
       <c r="G15" s="1">
@@ -848,19 +849,19 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>0.31425881347713469</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>0.16887344162223841</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>4.6254700002151202E-5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>0.72129766628889769</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>16.824115683302811</v>
       </c>
       <c r="G16" s="1">
@@ -871,19 +872,19 @@
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>0.2012429950591717</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>9.8723676939421579E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>7.5222092166063671E-9</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>0.81839502901648431</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>47.422298538911271</v>
       </c>
       <c r="G17" s="1">
@@ -894,19 +895,19 @@
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>5.0492589513170698E-2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>2.5516148601684271E-2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>3.0475615096747428E-3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>2.3327854361573488</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>314.15498782940978</v>
       </c>
       <c r="G18" s="1">
